--- a/mathTransformed/HMPSTT_(2015-07-25)_39_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-25)_39_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -485,6 +490,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S R B HalliMalavalli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -512,6 +522,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S T S chathra Pandavapura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -539,6 +554,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S BheemanahalliNagamangala</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -566,6 +586,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S (Hariyalamma Temple) ChittanahallyPandavapura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -593,6 +618,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>DhanaguruMalavalli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -620,6 +650,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H SchoolMuthegere Mandya North</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Mandy</t>
         </is>
       </c>
@@ -647,6 +682,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>R E H SHanakere</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -676,6 +716,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G G H S (New) Malavalli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -703,6 +748,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High SchoolB G PuraMalavally</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -730,6 +780,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Abhinava BharathiVidya Kerndra High School</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -757,6 +812,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>St. Joseph High School M C Road</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -784,6 +844,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Shri Shambhulingeshwara High School Yere GowdanahallyPandavapura</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Mandya – 57145</t>
         </is>
       </c>
@@ -811,6 +876,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>B R H S RamenahalliNagamanagala</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -838,6 +908,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S HeraganahalliNagamangala(Tq)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -867,6 +942,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S MudalakoppaluPandavapura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -894,6 +974,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S NaguvanahalliSri Rangapatna</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -921,6 +1006,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S AlambadiK R Pete</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -948,6 +1038,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G P U C Dudda</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -975,6 +1070,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Bharathi High SchoolK M DoddiMaddur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1002,6 +1102,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G P U CK R Pet</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1026,7 +1131,8 @@
           <t>SALEEM PASHA M</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">SALEEM PASHA </t>
         </is>
@@ -1044,6 +1150,11 @@
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>Jnanasurya High SchoolBelakavadiMalavalli</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Mandya</t>
         </is>
@@ -1072,6 +1183,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S YathambadiMalavalli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1097,7 +1213,8 @@
           <t>SATHISH CHANDRA S R</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>G H S Makavalli K R Pet(Tq) Mandya(Dist.</t>
         </is>
@@ -1126,6 +1243,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S A Hullukere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1153,6 +1275,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G J C Chinakurali Pandavapura</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1180,7 +1307,8 @@
           <t>SHASHIDHARA S</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>G H S Uramarakasalagere Mandya</t>
         </is>
@@ -1209,6 +1337,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S G Malligere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1236,6 +1369,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Sri Yadushyla High School MelukotePandavapura</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1263,6 +1401,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S DoddakothagereMandya North</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1290,6 +1433,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S BidarahosallyMaddur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1317,6 +1465,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Sarvajanika High School BelakavadiMalavalli</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1344,6 +1497,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Alk G C BellurNagamangala</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1371,6 +1529,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J C Bindiganavile Nagamangala</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1398,6 +1561,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G P U C KodiyalaS R Patna</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1425,6 +1593,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. High School K ShettallySrirangapatna</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1452,6 +1625,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S Hulikere</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Mandya North</t>
         </is>
       </c>
@@ -1479,6 +1657,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. Junior college High School Section ChikkanakanahalliMaddur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1506,6 +1689,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School GananguruS R Patna Tq</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1532,6 +1720,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>G H S KatteriPandavapura</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Mandya</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-07-25)_39_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-25)_39_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mandy</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,6 @@
           <t>SALEEM PASHA M</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">SALEEM PASHA </t>
@@ -1213,10 +1212,9 @@
           <t>SATHISH CHANDRA S R</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>G H S Makavalli K R Pet(Tq) Mandya(Dist.</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
@@ -1307,10 +1305,9 @@
           <t>SHASHIDHARA S</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>G H S Uramarakasalagere Mandya</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1627,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mandya North</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
